--- a/HealthScore/src/Resources/Updated_Final_Tests 2 (3).xlsx
+++ b/HealthScore/src/Resources/Updated_Final_Tests 2 (3).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2401217_cognizant_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60563AD0-ED27-4309-8F57-988BB5BA9FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{F0762B1D-69D4-4202-BA18-311F8ED8DA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24387536-5520-4A51-8325-FD0F58881FCC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0A9B2E77-138E-46BB-9833-BEAF9C09F7DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{0A9B2E77-138E-46BB-9833-BEAF9C09F7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -186,12 +186,6 @@
     <t>Consult a Doctor</t>
   </si>
   <si>
-    <t>Consult Doctor</t>
-  </si>
-  <si>
-    <t>60-80 Bpm</t>
-  </si>
-  <si>
     <t>Not In Range</t>
   </si>
 </sst>
@@ -199,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,7 +351,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,15 +686,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B41499-4559-4753-A4A5-05164B6D95D0}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -735,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -778,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -831,7 +825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -884,7 +878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -937,7 +931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
@@ -990,7 +984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
@@ -1096,7 +1090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>35</v>
       </c>
@@ -1149,7 +1143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1192,7 +1186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -1235,7 +1229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -1278,7 +1272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -1321,7 +1315,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -1364,7 +1358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -1407,7 +1401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
@@ -1450,8 +1444,6 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="K1:O1"/>
@@ -1474,9 +1466,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1516,7 +1508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1536,7 +1528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -1556,7 +1548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -1576,7 +1568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -1596,7 +1588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -1616,7 +1608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -1636,7 +1628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -1656,7 +1648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1676,7 +1668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -1696,7 +1688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -1716,7 +1708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -1736,7 +1728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -1756,7 +1748,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -1783,15 +1775,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341C44A4-B159-440F-B074-6102D791C693}">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1814,7 +1806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>80</v>
       </c>
@@ -1837,7 +1829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>80</v>
       </c>
@@ -1860,7 +1852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>80</v>
       </c>
@@ -1883,7 +1875,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>80</v>
       </c>
@@ -1906,7 +1898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>80</v>
       </c>
@@ -1929,7 +1921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>89</v>
       </c>
@@ -1952,7 +1944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>89</v>
       </c>
@@ -1975,7 +1967,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>89</v>
       </c>
@@ -1998,7 +1990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>89</v>
       </c>
@@ -2021,7 +2013,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>89</v>
       </c>
@@ -2044,7 +2036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>80</v>
       </c>
@@ -2067,7 +2059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>80</v>
       </c>
@@ -2090,7 +2082,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>80</v>
       </c>
@@ -2113,7 +2105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>80</v>
       </c>
@@ -2136,7 +2128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>80</v>
       </c>
@@ -2159,7 +2151,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>89</v>
       </c>
@@ -2182,7 +2174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>89</v>
       </c>
@@ -2205,7 +2197,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>89</v>
       </c>
@@ -2228,7 +2220,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>89</v>
       </c>
@@ -2251,7 +2243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>89</v>
       </c>
@@ -2274,7 +2266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>90</v>
       </c>
@@ -2297,7 +2289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>90</v>
       </c>
@@ -2320,7 +2312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>90</v>
       </c>
@@ -2343,7 +2335,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>89</v>
       </c>
@@ -2366,7 +2358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>89</v>
       </c>
@@ -2389,7 +2381,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>89</v>
       </c>
@@ -2412,7 +2404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>89</v>
       </c>
@@ -2435,7 +2427,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>89</v>
       </c>
@@ -2458,7 +2450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>90</v>
       </c>
@@ -2481,7 +2473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>90</v>
       </c>
@@ -2504,7 +2496,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>90</v>
       </c>
@@ -2527,7 +2519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>109</v>
       </c>
@@ -2550,7 +2542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>109</v>
       </c>
@@ -2573,7 +2565,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>109</v>
       </c>
@@ -2596,7 +2588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>90</v>
       </c>
@@ -2619,7 +2611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>90</v>
       </c>
@@ -2642,7 +2634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>90</v>
       </c>
@@ -2665,7 +2657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>109</v>
       </c>
@@ -2688,7 +2680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>109</v>
       </c>
@@ -2711,7 +2703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>109</v>
       </c>
@@ -2734,7 +2726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>110</v>
       </c>
@@ -2757,7 +2749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>109</v>
       </c>
@@ -2780,7 +2772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>109</v>
       </c>
@@ -2803,7 +2795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>109</v>
       </c>
@@ -2826,7 +2818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>110</v>
       </c>
@@ -2849,7 +2841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>130</v>
       </c>
@@ -2872,7 +2864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>110</v>
       </c>
@@ -2895,7 +2887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>130</v>
       </c>
@@ -2918,7 +2910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>131</v>
       </c>
@@ -2941,7 +2933,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>131</v>
       </c>
@@ -2964,7 +2956,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>131</v>
       </c>
@@ -2987,7 +2979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>130</v>
       </c>
@@ -3010,7 +3002,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>131</v>
       </c>
@@ -3033,7 +3025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>131</v>
       </c>
@@ -3056,7 +3048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>131</v>
       </c>
@@ -3079,7 +3071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>139</v>
       </c>
@@ -3102,7 +3094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>139</v>
       </c>
@@ -3125,7 +3117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>139</v>
       </c>
@@ -3148,7 +3140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>131</v>
       </c>
@@ -3171,7 +3163,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>131</v>
       </c>
@@ -3194,7 +3186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>131</v>
       </c>
@@ -3217,7 +3209,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>139</v>
       </c>
@@ -3240,7 +3232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>139</v>
       </c>
@@ -3263,7 +3255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>139</v>
       </c>
@@ -3286,7 +3278,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>140</v>
       </c>
@@ -3309,7 +3301,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>140</v>
       </c>
@@ -3332,7 +3324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>140</v>
       </c>
@@ -3355,7 +3347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>140</v>
       </c>
@@ -3378,7 +3370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>140</v>
       </c>
@@ -3401,7 +3393,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>139</v>
       </c>
@@ -3424,7 +3416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>139</v>
       </c>
@@ -3447,7 +3439,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>139</v>
       </c>
@@ -3470,7 +3462,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>140</v>
       </c>
@@ -3493,7 +3485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>140</v>
       </c>
@@ -3516,7 +3508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>140</v>
       </c>
@@ -3539,7 +3531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>140</v>
       </c>
@@ -3562,7 +3554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>140</v>
       </c>
@@ -3585,7 +3577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>150</v>
       </c>
@@ -3608,7 +3600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>150</v>
       </c>
@@ -3631,7 +3623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>150</v>
       </c>
@@ -3654,7 +3646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>150</v>
       </c>
@@ -3677,7 +3669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>150</v>
       </c>
@@ -3700,7 +3692,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>140</v>
       </c>
@@ -3723,7 +3715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>140</v>
       </c>
@@ -3746,7 +3738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>140</v>
       </c>
@@ -3769,7 +3761,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>140</v>
       </c>
@@ -3792,7 +3784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>140</v>
       </c>
@@ -3815,7 +3807,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>150</v>
       </c>
@@ -3838,7 +3830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>150</v>
       </c>
@@ -3861,7 +3853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>150</v>
       </c>
@@ -3884,7 +3876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>150</v>
       </c>
@@ -3907,7 +3899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>150</v>
       </c>
@@ -3927,1064 +3919,6 @@
         <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94">
-        <v>139</v>
-      </c>
-      <c r="B94">
-        <v>86</v>
-      </c>
-      <c r="C94">
-        <v>7</v>
-      </c>
-      <c r="D94" t="s">
-        <v>34</v>
-      </c>
-      <c r="E94">
-        <v>4</v>
-      </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-      <c r="G94" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95">
-        <v>131</v>
-      </c>
-      <c r="B95">
-        <v>89</v>
-      </c>
-      <c r="C95">
-        <v>7</v>
-      </c>
-      <c r="D95" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95">
-        <v>4</v>
-      </c>
-      <c r="F95">
-        <v>3</v>
-      </c>
-      <c r="G95" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96">
-        <v>131</v>
-      </c>
-      <c r="B96">
-        <v>89</v>
-      </c>
-      <c r="C96">
-        <v>7</v>
-      </c>
-      <c r="D96" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96">
-        <v>7</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97">
-        <v>131</v>
-      </c>
-      <c r="B97">
-        <v>89</v>
-      </c>
-      <c r="C97">
-        <v>7</v>
-      </c>
-      <c r="D97" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97">
-        <v>10</v>
-      </c>
-      <c r="F97">
-        <v>3</v>
-      </c>
-      <c r="G97" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98">
-        <v>131</v>
-      </c>
-      <c r="B98">
-        <v>89</v>
-      </c>
-      <c r="C98">
-        <v>7</v>
-      </c>
-      <c r="D98" t="s">
-        <v>30</v>
-      </c>
-      <c r="E98">
-        <v>7</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99">
-        <v>131</v>
-      </c>
-      <c r="B99">
-        <v>89</v>
-      </c>
-      <c r="C99">
-        <v>7</v>
-      </c>
-      <c r="D99" t="s">
-        <v>34</v>
-      </c>
-      <c r="E99">
-        <v>4</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-      <c r="G99" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100">
-        <v>139</v>
-      </c>
-      <c r="B100">
-        <v>89</v>
-      </c>
-      <c r="C100">
-        <v>7</v>
-      </c>
-      <c r="D100" t="s">
-        <v>22</v>
-      </c>
-      <c r="E100">
-        <v>4</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-      <c r="G100" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101">
-        <v>139</v>
-      </c>
-      <c r="B101">
-        <v>89</v>
-      </c>
-      <c r="C101">
-        <v>7</v>
-      </c>
-      <c r="D101" t="s">
-        <v>25</v>
-      </c>
-      <c r="E101">
-        <v>7</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102">
-        <v>139</v>
-      </c>
-      <c r="B102">
-        <v>89</v>
-      </c>
-      <c r="C102">
-        <v>7</v>
-      </c>
-      <c r="D102" t="s">
-        <v>27</v>
-      </c>
-      <c r="E102">
-        <v>10</v>
-      </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-      <c r="G102" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103">
-        <v>139</v>
-      </c>
-      <c r="B103">
-        <v>89</v>
-      </c>
-      <c r="C103">
-        <v>7</v>
-      </c>
-      <c r="D103" t="s">
-        <v>30</v>
-      </c>
-      <c r="E103">
-        <v>7</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104">
-        <v>139</v>
-      </c>
-      <c r="B104">
-        <v>89</v>
-      </c>
-      <c r="C104">
-        <v>7</v>
-      </c>
-      <c r="D104" t="s">
-        <v>34</v>
-      </c>
-      <c r="E104">
-        <v>4</v>
-      </c>
-      <c r="F104">
-        <v>3</v>
-      </c>
-      <c r="G104" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105">
-        <v>140</v>
-      </c>
-      <c r="B105">
-        <v>90</v>
-      </c>
-      <c r="C105">
-        <v>7</v>
-      </c>
-      <c r="D105" t="s">
-        <v>22</v>
-      </c>
-      <c r="E105">
-        <v>4</v>
-      </c>
-      <c r="F105">
-        <v>3</v>
-      </c>
-      <c r="G105" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106">
-        <v>140</v>
-      </c>
-      <c r="B106">
-        <v>90</v>
-      </c>
-      <c r="C106">
-        <v>7</v>
-      </c>
-      <c r="D106" t="s">
-        <v>25</v>
-      </c>
-      <c r="E106">
-        <v>7</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107">
-        <v>140</v>
-      </c>
-      <c r="B107">
-        <v>90</v>
-      </c>
-      <c r="C107">
-        <v>7</v>
-      </c>
-      <c r="D107" t="s">
-        <v>27</v>
-      </c>
-      <c r="E107">
-        <v>10</v>
-      </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-      <c r="G107" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108">
-        <v>140</v>
-      </c>
-      <c r="B108">
-        <v>90</v>
-      </c>
-      <c r="C108">
-        <v>7</v>
-      </c>
-      <c r="D108" t="s">
-        <v>30</v>
-      </c>
-      <c r="E108">
-        <v>7</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109">
-        <v>140</v>
-      </c>
-      <c r="B109">
-        <v>90</v>
-      </c>
-      <c r="C109">
-        <v>7</v>
-      </c>
-      <c r="D109" t="s">
-        <v>34</v>
-      </c>
-      <c r="E109">
-        <v>4</v>
-      </c>
-      <c r="F109">
-        <v>3</v>
-      </c>
-      <c r="G109" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110">
-        <v>139</v>
-      </c>
-      <c r="B110">
-        <v>89</v>
-      </c>
-      <c r="C110">
-        <v>4</v>
-      </c>
-      <c r="D110" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110">
-        <v>2</v>
-      </c>
-      <c r="F110">
-        <v>2</v>
-      </c>
-      <c r="G110" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111">
-        <v>139</v>
-      </c>
-      <c r="B111">
-        <v>89</v>
-      </c>
-      <c r="C111">
-        <v>4</v>
-      </c>
-      <c r="D111" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111">
-        <v>4</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112">
-        <v>139</v>
-      </c>
-      <c r="B112">
-        <v>89</v>
-      </c>
-      <c r="C112">
-        <v>4</v>
-      </c>
-      <c r="D112" t="s">
-        <v>25</v>
-      </c>
-      <c r="E112">
-        <v>7</v>
-      </c>
-      <c r="F112">
-        <v>3</v>
-      </c>
-      <c r="G112" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113">
-        <v>139</v>
-      </c>
-      <c r="B113">
-        <v>89</v>
-      </c>
-      <c r="C113">
-        <v>4</v>
-      </c>
-      <c r="D113" t="s">
-        <v>30</v>
-      </c>
-      <c r="E113">
-        <v>7</v>
-      </c>
-      <c r="F113">
-        <v>3</v>
-      </c>
-      <c r="G113" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114">
-        <v>139</v>
-      </c>
-      <c r="B114">
-        <v>89</v>
-      </c>
-      <c r="C114">
-        <v>4</v>
-      </c>
-      <c r="D114" t="s">
-        <v>34</v>
-      </c>
-      <c r="E114">
-        <v>4</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115">
-        <v>139</v>
-      </c>
-      <c r="B115">
-        <v>89</v>
-      </c>
-      <c r="C115">
-        <v>4</v>
-      </c>
-      <c r="D115" t="s">
-        <v>36</v>
-      </c>
-      <c r="E115">
-        <v>2</v>
-      </c>
-      <c r="F115">
-        <v>2</v>
-      </c>
-      <c r="G115" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116">
-        <v>140</v>
-      </c>
-      <c r="B116">
-        <v>90</v>
-      </c>
-      <c r="C116">
-        <v>4</v>
-      </c>
-      <c r="D116" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116">
-        <v>2</v>
-      </c>
-      <c r="F116">
-        <v>2</v>
-      </c>
-      <c r="G116" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117">
-        <v>140</v>
-      </c>
-      <c r="B117">
-        <v>90</v>
-      </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-      <c r="D117" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117">
-        <v>4</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118">
-        <v>140</v>
-      </c>
-      <c r="B118">
-        <v>90</v>
-      </c>
-      <c r="C118">
-        <v>4</v>
-      </c>
-      <c r="D118" t="s">
-        <v>25</v>
-      </c>
-      <c r="E118">
-        <v>7</v>
-      </c>
-      <c r="F118">
-        <v>3</v>
-      </c>
-      <c r="G118" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119">
-        <v>140</v>
-      </c>
-      <c r="B119">
-        <v>90</v>
-      </c>
-      <c r="C119">
-        <v>4</v>
-      </c>
-      <c r="D119" t="s">
-        <v>30</v>
-      </c>
-      <c r="E119">
-        <v>7</v>
-      </c>
-      <c r="F119">
-        <v>3</v>
-      </c>
-      <c r="G119" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120">
-        <v>140</v>
-      </c>
-      <c r="B120">
-        <v>90</v>
-      </c>
-      <c r="C120">
-        <v>4</v>
-      </c>
-      <c r="D120" t="s">
-        <v>34</v>
-      </c>
-      <c r="E120">
-        <v>4</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121">
-        <v>140</v>
-      </c>
-      <c r="B121">
-        <v>90</v>
-      </c>
-      <c r="C121">
-        <v>4</v>
-      </c>
-      <c r="D121" t="s">
-        <v>36</v>
-      </c>
-      <c r="E121">
-        <v>2</v>
-      </c>
-      <c r="F121">
-        <v>2</v>
-      </c>
-      <c r="G121" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122">
-        <v>150</v>
-      </c>
-      <c r="B122">
-        <v>90</v>
-      </c>
-      <c r="C122">
-        <v>4</v>
-      </c>
-      <c r="D122" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122">
-        <v>2</v>
-      </c>
-      <c r="F122">
-        <v>2</v>
-      </c>
-      <c r="G122" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123">
-        <v>150</v>
-      </c>
-      <c r="B123">
-        <v>90</v>
-      </c>
-      <c r="C123">
-        <v>4</v>
-      </c>
-      <c r="D123" t="s">
-        <v>22</v>
-      </c>
-      <c r="E123">
-        <v>4</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124">
-        <v>150</v>
-      </c>
-      <c r="B124">
-        <v>90</v>
-      </c>
-      <c r="C124">
-        <v>4</v>
-      </c>
-      <c r="D124" t="s">
-        <v>25</v>
-      </c>
-      <c r="E124">
-        <v>7</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-      <c r="G124" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125">
-        <v>150</v>
-      </c>
-      <c r="B125">
-        <v>90</v>
-      </c>
-      <c r="C125">
-        <v>4</v>
-      </c>
-      <c r="D125" t="s">
-        <v>30</v>
-      </c>
-      <c r="E125">
-        <v>7</v>
-      </c>
-      <c r="F125">
-        <v>3</v>
-      </c>
-      <c r="G125" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126">
-        <v>150</v>
-      </c>
-      <c r="B126">
-        <v>90</v>
-      </c>
-      <c r="C126">
-        <v>4</v>
-      </c>
-      <c r="D126" t="s">
-        <v>34</v>
-      </c>
-      <c r="E126">
-        <v>4</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127">
-        <v>150</v>
-      </c>
-      <c r="B127">
-        <v>90</v>
-      </c>
-      <c r="C127">
-        <v>4</v>
-      </c>
-      <c r="D127" t="s">
-        <v>36</v>
-      </c>
-      <c r="E127">
-        <v>2</v>
-      </c>
-      <c r="F127">
-        <v>2</v>
-      </c>
-      <c r="G127" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128">
-        <v>140</v>
-      </c>
-      <c r="B128">
-        <v>99</v>
-      </c>
-      <c r="C128">
-        <v>4</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128">
-        <v>2</v>
-      </c>
-      <c r="F128">
-        <v>2</v>
-      </c>
-      <c r="G128" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129">
-        <v>140</v>
-      </c>
-      <c r="B129">
-        <v>99</v>
-      </c>
-      <c r="C129">
-        <v>4</v>
-      </c>
-      <c r="D129" t="s">
-        <v>22</v>
-      </c>
-      <c r="E129">
-        <v>4</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130">
-        <v>140</v>
-      </c>
-      <c r="B130">
-        <v>99</v>
-      </c>
-      <c r="C130">
-        <v>4</v>
-      </c>
-      <c r="D130" t="s">
-        <v>25</v>
-      </c>
-      <c r="E130">
-        <v>7</v>
-      </c>
-      <c r="F130">
-        <v>3</v>
-      </c>
-      <c r="G130" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131">
-        <v>140</v>
-      </c>
-      <c r="B131">
-        <v>99</v>
-      </c>
-      <c r="C131">
-        <v>4</v>
-      </c>
-      <c r="D131" t="s">
-        <v>30</v>
-      </c>
-      <c r="E131">
-        <v>7</v>
-      </c>
-      <c r="F131">
-        <v>3</v>
-      </c>
-      <c r="G131" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132">
-        <v>140</v>
-      </c>
-      <c r="B132">
-        <v>99</v>
-      </c>
-      <c r="C132">
-        <v>4</v>
-      </c>
-      <c r="D132" t="s">
-        <v>34</v>
-      </c>
-      <c r="E132">
-        <v>4</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133">
-        <v>140</v>
-      </c>
-      <c r="B133">
-        <v>99</v>
-      </c>
-      <c r="C133">
-        <v>4</v>
-      </c>
-      <c r="D133" t="s">
-        <v>36</v>
-      </c>
-      <c r="E133">
-        <v>2</v>
-      </c>
-      <c r="F133">
-        <v>2</v>
-      </c>
-      <c r="G133" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134">
-        <v>150</v>
-      </c>
-      <c r="B134">
-        <v>99</v>
-      </c>
-      <c r="C134">
-        <v>4</v>
-      </c>
-      <c r="D134" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134">
-        <v>2</v>
-      </c>
-      <c r="F134">
-        <v>2</v>
-      </c>
-      <c r="G134" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135">
-        <v>150</v>
-      </c>
-      <c r="B135">
-        <v>99</v>
-      </c>
-      <c r="C135">
-        <v>4</v>
-      </c>
-      <c r="D135" t="s">
-        <v>22</v>
-      </c>
-      <c r="E135">
-        <v>4</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136">
-        <v>150</v>
-      </c>
-      <c r="B136">
-        <v>99</v>
-      </c>
-      <c r="C136">
-        <v>4</v>
-      </c>
-      <c r="D136" t="s">
-        <v>25</v>
-      </c>
-      <c r="E136">
-        <v>7</v>
-      </c>
-      <c r="F136">
-        <v>3</v>
-      </c>
-      <c r="G136" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137">
-        <v>150</v>
-      </c>
-      <c r="B137">
-        <v>99</v>
-      </c>
-      <c r="C137">
-        <v>4</v>
-      </c>
-      <c r="D137" t="s">
-        <v>30</v>
-      </c>
-      <c r="E137">
-        <v>7</v>
-      </c>
-      <c r="F137">
-        <v>3</v>
-      </c>
-      <c r="G137" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138">
-        <v>150</v>
-      </c>
-      <c r="B138">
-        <v>99</v>
-      </c>
-      <c r="C138">
-        <v>4</v>
-      </c>
-      <c r="D138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E138">
-        <v>4</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139">
-        <v>150</v>
-      </c>
-      <c r="B139">
-        <v>99</v>
-      </c>
-      <c r="C139">
-        <v>4</v>
-      </c>
-      <c r="D139" t="s">
-        <v>36</v>
-      </c>
-      <c r="E139">
-        <v>2</v>
-      </c>
-      <c r="F139">
-        <v>2</v>
-      </c>
-      <c r="G139" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4995,15 +3929,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E64E1C-D0A7-48AE-9075-7A49FFE60A6C}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="D51" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -5026,7 +3960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>90</v>
       </c>
@@ -5049,7 +3983,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>90</v>
       </c>
@@ -5072,7 +4006,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>90</v>
       </c>
@@ -5095,7 +4029,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>90</v>
       </c>
@@ -5118,7 +4052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>109</v>
       </c>
@@ -5141,7 +4075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>109</v>
       </c>
@@ -5164,7 +4098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>90</v>
       </c>
@@ -5187,7 +4121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>90</v>
       </c>
@@ -5210,7 +4144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>109</v>
       </c>
@@ -5233,7 +4167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>109</v>
       </c>
@@ -5256,7 +4190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>110</v>
       </c>
@@ -5279,7 +4213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>110</v>
       </c>
@@ -5302,7 +4236,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>110</v>
       </c>
@@ -5325,7 +4259,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>110</v>
       </c>
@@ -5348,7 +4282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>109</v>
       </c>
@@ -5371,7 +4305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>109</v>
       </c>
@@ -5394,7 +4328,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>110</v>
       </c>
@@ -5417,7 +4351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>110</v>
       </c>
@@ -5440,7 +4374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>110</v>
       </c>
@@ -5463,7 +4397,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>110</v>
       </c>
@@ -5486,7 +4420,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>130</v>
       </c>
@@ -5509,7 +4443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>130</v>
       </c>
@@ -5532,7 +4466,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>130</v>
       </c>
@@ -5555,7 +4489,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>130</v>
       </c>
@@ -5578,7 +4512,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>110</v>
       </c>
@@ -5601,7 +4535,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>110</v>
       </c>
@@ -5624,7 +4558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>110</v>
       </c>
@@ -5647,7 +4581,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>110</v>
       </c>
@@ -5670,7 +4604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>130</v>
       </c>
@@ -5693,7 +4627,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>130</v>
       </c>
@@ -5716,7 +4650,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>130</v>
       </c>
@@ -5739,7 +4673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>130</v>
       </c>
@@ -5762,7 +4696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>131</v>
       </c>
@@ -5785,7 +4719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>131</v>
       </c>
@@ -5808,7 +4742,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>130</v>
       </c>
@@ -5831,7 +4765,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>130</v>
       </c>
@@ -5854,7 +4788,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>130</v>
       </c>
@@ -5877,7 +4811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>130</v>
       </c>
@@ -5900,7 +4834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>131</v>
       </c>
@@ -5923,7 +4857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>131</v>
       </c>
@@ -5946,7 +4880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>139</v>
       </c>
@@ -5969,7 +4903,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>139</v>
       </c>
@@ -5992,7 +4926,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>131</v>
       </c>
@@ -6015,7 +4949,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>131</v>
       </c>
@@ -6038,7 +4972,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>139</v>
       </c>
@@ -6061,7 +4995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>139</v>
       </c>
@@ -6084,7 +5018,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>139</v>
       </c>
@@ -6107,7 +5041,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>139</v>
       </c>
@@ -6128,236 +5062,6 @@
       </c>
       <c r="G49" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
-        <v>131</v>
-      </c>
-      <c r="B50">
-        <v>89</v>
-      </c>
-      <c r="C50">
-        <v>7</v>
-      </c>
-      <c r="D50" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50">
-        <v>5</v>
-      </c>
-      <c r="G50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
-        <v>139</v>
-      </c>
-      <c r="B51">
-        <v>89</v>
-      </c>
-      <c r="C51">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>5</v>
-      </c>
-      <c r="G51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
-        <v>139</v>
-      </c>
-      <c r="B52">
-        <v>89</v>
-      </c>
-      <c r="C52">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52">
-        <v>5</v>
-      </c>
-      <c r="G52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>140</v>
-      </c>
-      <c r="B53">
-        <v>90</v>
-      </c>
-      <c r="C53">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>5</v>
-      </c>
-      <c r="G53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>140</v>
-      </c>
-      <c r="B54">
-        <v>90</v>
-      </c>
-      <c r="C54">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54">
-        <v>5</v>
-      </c>
-      <c r="G54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>139</v>
-      </c>
-      <c r="B55">
-        <v>89</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55">
-        <v>10</v>
-      </c>
-      <c r="F55">
-        <v>6</v>
-      </c>
-      <c r="G55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56">
-        <v>140</v>
-      </c>
-      <c r="B56">
-        <v>90</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56">
-        <v>10</v>
-      </c>
-      <c r="F56">
-        <v>6</v>
-      </c>
-      <c r="G56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>150</v>
-      </c>
-      <c r="B57">
-        <v>90</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57">
-        <v>10</v>
-      </c>
-      <c r="F57">
-        <v>6</v>
-      </c>
-      <c r="G57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>140</v>
-      </c>
-      <c r="B58">
-        <v>99</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58">
-        <v>10</v>
-      </c>
-      <c r="F58">
-        <v>6</v>
-      </c>
-      <c r="G58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>150</v>
-      </c>
-      <c r="B59">
-        <v>99</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59">
-        <v>10</v>
-      </c>
-      <c r="F59">
-        <v>6</v>
-      </c>
-      <c r="G59" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6367,15 +5071,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C259C4-2273-4B2F-876D-D74F3BD96188}">
-  <dimension ref="A1:G365"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
-    <sheetView topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="H362" sqref="H362"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -6398,7 +5102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>90</v>
       </c>
@@ -6418,10 +5122,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>90</v>
       </c>
@@ -6441,10 +5145,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>90</v>
       </c>
@@ -6464,10 +5168,10 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>90</v>
       </c>
@@ -6487,10 +5191,10 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>90</v>
       </c>
@@ -6510,10 +5214,10 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>90</v>
       </c>
@@ -6533,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>90</v>
       </c>
@@ -6556,10 +5260,10 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>90</v>
       </c>
@@ -6579,10 +5283,10 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>90</v>
       </c>
@@ -6602,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>90</v>
       </c>
@@ -6625,10 +5329,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>90</v>
       </c>
@@ -6648,10 +5352,10 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>90</v>
       </c>
@@ -6671,10 +5375,10 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>90</v>
       </c>
@@ -6694,10 +5398,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>90</v>
       </c>
@@ -6717,10 +5421,10 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>80</v>
       </c>
@@ -6740,10 +5444,10 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>80</v>
       </c>
@@ -6763,10 +5467,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>80</v>
       </c>
@@ -6786,10 +5490,10 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>80</v>
       </c>
@@ -6809,10 +5513,10 @@
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>80</v>
       </c>
@@ -6832,10 +5536,10 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>80</v>
       </c>
@@ -6855,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>80</v>
       </c>
@@ -6878,10 +5582,10 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>89</v>
       </c>
@@ -6901,10 +5605,10 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>89</v>
       </c>
@@ -6924,10 +5628,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>89</v>
       </c>
@@ -6947,10 +5651,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>89</v>
       </c>
@@ -6970,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>89</v>
       </c>
@@ -6993,10 +5697,10 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>89</v>
       </c>
@@ -7016,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>89</v>
       </c>
@@ -7039,10 +5743,10 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>90</v>
       </c>
@@ -7062,10 +5766,10 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>90</v>
       </c>
@@ -7085,10 +5789,10 @@
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>90</v>
       </c>
@@ -7108,10 +5812,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>90</v>
       </c>
@@ -7131,10 +5835,10 @@
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>90</v>
       </c>
@@ -7154,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>90</v>
       </c>
@@ -7177,10 +5881,10 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>90</v>
       </c>
@@ -7200,10 +5904,10 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>109</v>
       </c>
@@ -7223,10 +5927,10 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>109</v>
       </c>
@@ -7246,10 +5950,10 @@
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>109</v>
       </c>
@@ -7269,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>109</v>
       </c>
@@ -7292,10 +5996,10 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>109</v>
       </c>
@@ -7315,10 +6019,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>109</v>
       </c>
@@ -7338,10 +6042,10 @@
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>109</v>
       </c>
@@ -7361,10 +6065,10 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>110</v>
       </c>
@@ -7384,10 +6088,10 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>110</v>
       </c>
@@ -7407,10 +6111,10 @@
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>110</v>
       </c>
@@ -7430,10 +6134,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>110</v>
       </c>
@@ -7453,10 +6157,10 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>110</v>
       </c>
@@ -7476,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>110</v>
       </c>
@@ -7499,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>110</v>
       </c>
@@ -7522,10 +6226,10 @@
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>89</v>
       </c>
@@ -7545,10 +6249,10 @@
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>89</v>
       </c>
@@ -7568,10 +6272,10 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>89</v>
       </c>
@@ -7591,10 +6295,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>89</v>
       </c>
@@ -7614,10 +6318,10 @@
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>89</v>
       </c>
@@ -7637,10 +6341,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>89</v>
       </c>
@@ -7660,10 +6364,10 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>89</v>
       </c>
@@ -7683,10 +6387,10 @@
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>110</v>
       </c>
@@ -7706,10 +6410,10 @@
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>110</v>
       </c>
@@ -7729,10 +6433,10 @@
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>110</v>
       </c>
@@ -7752,10 +6456,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>110</v>
       </c>
@@ -7775,10 +6479,10 @@
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>110</v>
       </c>
@@ -7798,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>110</v>
       </c>
@@ -7821,10 +6525,10 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>110</v>
       </c>
@@ -7844,10 +6548,10 @@
         <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>89</v>
       </c>
@@ -7867,10 +6571,10 @@
         <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>89</v>
       </c>
@@ -7890,10 +6594,10 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>89</v>
       </c>
@@ -7913,10 +6617,10 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>89</v>
       </c>
@@ -7936,10 +6640,10 @@
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>89</v>
       </c>
@@ -7959,10 +6663,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>89</v>
       </c>
@@ -7982,10 +6686,10 @@
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>89</v>
       </c>
@@ -8005,10 +6709,10 @@
         <v>5</v>
       </c>
       <c r="G71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>110</v>
       </c>
@@ -8028,10 +6732,10 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>110</v>
       </c>
@@ -8051,10 +6755,10 @@
         <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>110</v>
       </c>
@@ -8074,10 +6778,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>110</v>
       </c>
@@ -8097,10 +6801,10 @@
         <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>110</v>
       </c>
@@ -8120,10 +6824,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>110</v>
       </c>
@@ -8143,10 +6847,10 @@
         <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>110</v>
       </c>
@@ -8166,10 +6870,10 @@
         <v>5</v>
       </c>
       <c r="G78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>89</v>
       </c>
@@ -8189,10 +6893,10 @@
         <v>5</v>
       </c>
       <c r="G79" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>89</v>
       </c>
@@ -8212,10 +6916,10 @@
         <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>89</v>
       </c>
@@ -8235,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>89</v>
       </c>
@@ -8258,10 +6962,10 @@
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>89</v>
       </c>
@@ -8281,10 +6985,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>89</v>
       </c>
@@ -8304,10 +7008,10 @@
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>89</v>
       </c>
@@ -8327,10 +7031,10 @@
         <v>5</v>
       </c>
       <c r="G85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>90</v>
       </c>
@@ -8350,10 +7054,10 @@
         <v>5</v>
       </c>
       <c r="G86" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>90</v>
       </c>
@@ -8373,10 +7077,10 @@
         <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>90</v>
       </c>
@@ -8396,10 +7100,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>90</v>
       </c>
@@ -8419,10 +7123,10 @@
         <v>3</v>
       </c>
       <c r="G89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>90</v>
       </c>
@@ -8442,10 +7146,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8465,10 +7169,10 @@
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
@@ -8488,10 +7192,10 @@
         <v>5</v>
       </c>
       <c r="G92" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>109</v>
       </c>
@@ -8511,10 +7215,10 @@
         <v>5</v>
       </c>
       <c r="G93" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>109</v>
       </c>
@@ -8534,10 +7238,10 @@
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>109</v>
       </c>
@@ -8557,10 +7261,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>109</v>
       </c>
@@ -8580,10 +7284,10 @@
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>109</v>
       </c>
@@ -8603,10 +7307,10 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>109</v>
       </c>
@@ -8626,10 +7330,10 @@
         <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>109</v>
       </c>
@@ -8649,10 +7353,10 @@
         <v>5</v>
       </c>
       <c r="G99" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>110</v>
       </c>
@@ -8672,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>110</v>
       </c>
@@ -8695,10 +7399,10 @@
         <v>6</v>
       </c>
       <c r="G101" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>110</v>
       </c>
@@ -8718,10 +7422,10 @@
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>110</v>
       </c>
@@ -8741,10 +7445,10 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>110</v>
       </c>
@@ -8764,10 +7468,10 @@
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>110</v>
       </c>
@@ -8787,10 +7491,10 @@
         <v>6</v>
       </c>
       <c r="G105" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>110</v>
       </c>
@@ -8810,10 +7514,10 @@
         <v>8</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>130</v>
       </c>
@@ -8833,10 +7537,10 @@
         <v>8</v>
       </c>
       <c r="G107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>130</v>
       </c>
@@ -8856,10 +7560,10 @@
         <v>6</v>
       </c>
       <c r="G108" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>130</v>
       </c>
@@ -8879,10 +7583,10 @@
         <v>3</v>
       </c>
       <c r="G109" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>130</v>
       </c>
@@ -8902,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>130</v>
       </c>
@@ -8925,10 +7629,10 @@
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>130</v>
       </c>
@@ -8948,10 +7652,10 @@
         <v>6</v>
       </c>
       <c r="G112" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>130</v>
       </c>
@@ -8971,10 +7675,10 @@
         <v>8</v>
       </c>
       <c r="G113" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>131</v>
       </c>
@@ -8994,10 +7698,10 @@
         <v>8</v>
       </c>
       <c r="G114" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>131</v>
       </c>
@@ -9017,10 +7721,10 @@
         <v>6</v>
       </c>
       <c r="G115" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>131</v>
       </c>
@@ -9040,10 +7744,10 @@
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>131</v>
       </c>
@@ -9063,10 +7767,10 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>131</v>
       </c>
@@ -9086,10 +7790,10 @@
         <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>131</v>
       </c>
@@ -9109,10 +7813,10 @@
         <v>6</v>
       </c>
       <c r="G119" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>131</v>
       </c>
@@ -9132,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="G120" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>109</v>
       </c>
@@ -9155,10 +7859,10 @@
         <v>8</v>
       </c>
       <c r="G121" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>109</v>
       </c>
@@ -9178,10 +7882,10 @@
         <v>6</v>
       </c>
       <c r="G122" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>109</v>
       </c>
@@ -9201,10 +7905,10 @@
         <v>3</v>
       </c>
       <c r="G123" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>109</v>
       </c>
@@ -9224,10 +7928,10 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>109</v>
       </c>
@@ -9247,10 +7951,10 @@
         <v>3</v>
       </c>
       <c r="G125" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>109</v>
       </c>
@@ -9270,10 +7974,10 @@
         <v>6</v>
       </c>
       <c r="G126" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>109</v>
       </c>
@@ -9293,10 +7997,10 @@
         <v>8</v>
       </c>
       <c r="G127" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>131</v>
       </c>
@@ -9316,10 +8020,10 @@
         <v>8</v>
       </c>
       <c r="G128" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>131</v>
       </c>
@@ -9339,10 +8043,10 @@
         <v>6</v>
       </c>
       <c r="G129" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>131</v>
       </c>
@@ -9362,10 +8066,10 @@
         <v>3</v>
       </c>
       <c r="G130" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>131</v>
       </c>
@@ -9385,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9408,10 +8112,10 @@
         <v>3</v>
       </c>
       <c r="G132" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>131</v>
       </c>
@@ -9431,10 +8135,10 @@
         <v>6</v>
       </c>
       <c r="G133" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>131</v>
       </c>
@@ -9454,10 +8158,10 @@
         <v>8</v>
       </c>
       <c r="G134" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>109</v>
       </c>
@@ -9477,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="G135" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>109</v>
       </c>
@@ -9500,10 +8204,10 @@
         <v>6</v>
       </c>
       <c r="G136" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>109</v>
       </c>
@@ -9523,10 +8227,10 @@
         <v>3</v>
       </c>
       <c r="G137" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>109</v>
       </c>
@@ -9546,10 +8250,10 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>109</v>
       </c>
@@ -9569,10 +8273,10 @@
         <v>3</v>
       </c>
       <c r="G139" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>109</v>
       </c>
@@ -9592,10 +8296,10 @@
         <v>6</v>
       </c>
       <c r="G140" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>109</v>
       </c>
@@ -9615,10 +8319,10 @@
         <v>8</v>
       </c>
       <c r="G141" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>131</v>
       </c>
@@ -9638,10 +8342,10 @@
         <v>8</v>
       </c>
       <c r="G142" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>131</v>
       </c>
@@ -9661,10 +8365,10 @@
         <v>6</v>
       </c>
       <c r="G143" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>131</v>
       </c>
@@ -9684,10 +8388,10 @@
         <v>3</v>
       </c>
       <c r="G144" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>131</v>
       </c>
@@ -9707,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>131</v>
       </c>
@@ -9730,10 +8434,10 @@
         <v>3</v>
       </c>
       <c r="G146" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>131</v>
       </c>
@@ -9753,10 +8457,10 @@
         <v>6</v>
       </c>
       <c r="G147" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>131</v>
       </c>
@@ -9776,10 +8480,10 @@
         <v>8</v>
       </c>
       <c r="G148" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>109</v>
       </c>
@@ -9799,10 +8503,10 @@
         <v>8</v>
       </c>
       <c r="G149" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>109</v>
       </c>
@@ -9822,10 +8526,10 @@
         <v>6</v>
       </c>
       <c r="G150" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>109</v>
       </c>
@@ -9845,10 +8549,10 @@
         <v>3</v>
       </c>
       <c r="G151" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>109</v>
       </c>
@@ -9868,10 +8572,10 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>109</v>
       </c>
@@ -9891,10 +8595,10 @@
         <v>3</v>
       </c>
       <c r="G153" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>109</v>
       </c>
@@ -9914,10 +8618,10 @@
         <v>6</v>
       </c>
       <c r="G154" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>109</v>
       </c>
@@ -9937,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="G155" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>110</v>
       </c>
@@ -9960,10 +8664,10 @@
         <v>8</v>
       </c>
       <c r="G156" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>110</v>
       </c>
@@ -9983,10 +8687,10 @@
         <v>6</v>
       </c>
       <c r="G157" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>110</v>
       </c>
@@ -10006,10 +8710,10 @@
         <v>3</v>
       </c>
       <c r="G158" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>110</v>
       </c>
@@ -10029,10 +8733,10 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>110</v>
       </c>
@@ -10052,10 +8756,10 @@
         <v>3</v>
       </c>
       <c r="G160" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>110</v>
       </c>
@@ -10075,10 +8779,10 @@
         <v>6</v>
       </c>
       <c r="G161" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>110</v>
       </c>
@@ -10098,10 +8802,10 @@
         <v>8</v>
       </c>
       <c r="G162" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>130</v>
       </c>
@@ -10121,10 +8825,10 @@
         <v>8</v>
       </c>
       <c r="G163" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>130</v>
       </c>
@@ -10144,10 +8848,10 @@
         <v>6</v>
       </c>
       <c r="G164" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>130</v>
       </c>
@@ -10167,10 +8871,10 @@
         <v>3</v>
       </c>
       <c r="G165" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>130</v>
       </c>
@@ -10190,10 +8894,10 @@
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>130</v>
       </c>
@@ -10213,10 +8917,10 @@
         <v>3</v>
       </c>
       <c r="G167" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>130</v>
       </c>
@@ -10236,10 +8940,10 @@
         <v>6</v>
       </c>
       <c r="G168" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>130</v>
       </c>
@@ -10259,10 +8963,10 @@
         <v>8</v>
       </c>
       <c r="G169" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>131</v>
       </c>
@@ -10282,10 +8986,10 @@
         <v>5</v>
       </c>
       <c r="G170" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>131</v>
       </c>
@@ -10305,10 +9009,10 @@
         <v>3</v>
       </c>
       <c r="G171" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>131</v>
       </c>
@@ -10328,10 +9032,10 @@
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>131</v>
       </c>
@@ -10351,10 +9055,10 @@
         <v>3</v>
       </c>
       <c r="G173" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>131</v>
       </c>
@@ -10374,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>131</v>
       </c>
@@ -10397,10 +9101,10 @@
         <v>3</v>
       </c>
       <c r="G175" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>131</v>
       </c>
@@ -10420,10 +9124,10 @@
         <v>5</v>
       </c>
       <c r="G176" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>139</v>
       </c>
@@ -10443,10 +9147,10 @@
         <v>5</v>
       </c>
       <c r="G177" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>139</v>
       </c>
@@ -10466,10 +9170,10 @@
         <v>3</v>
       </c>
       <c r="G178" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>139</v>
       </c>
@@ -10489,10 +9193,10 @@
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>139</v>
       </c>
@@ -10512,10 +9216,10 @@
         <v>3</v>
       </c>
       <c r="G180" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>139</v>
       </c>
@@ -10535,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>139</v>
       </c>
@@ -10558,10 +9262,10 @@
         <v>3</v>
       </c>
       <c r="G182" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>139</v>
       </c>
@@ -10581,10 +9285,10 @@
         <v>5</v>
       </c>
       <c r="G183" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>140</v>
       </c>
@@ -10604,10 +9308,10 @@
         <v>5</v>
       </c>
       <c r="G184" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>140</v>
       </c>
@@ -10627,10 +9331,10 @@
         <v>3</v>
       </c>
       <c r="G185" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>140</v>
       </c>
@@ -10650,10 +9354,10 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>140</v>
       </c>
@@ -10673,10 +9377,10 @@
         <v>3</v>
       </c>
       <c r="G187" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>140</v>
       </c>
@@ -10696,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>140</v>
       </c>
@@ -10719,10 +9423,10 @@
         <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>140</v>
       </c>
@@ -10742,10 +9446,10 @@
         <v>5</v>
       </c>
       <c r="G190" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>130</v>
       </c>
@@ -10765,10 +9469,10 @@
         <v>5</v>
       </c>
       <c r="G191" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>130</v>
       </c>
@@ -10788,10 +9492,10 @@
         <v>3</v>
       </c>
       <c r="G192" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>130</v>
       </c>
@@ -10811,10 +9515,10 @@
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>130</v>
       </c>
@@ -10834,10 +9538,10 @@
         <v>3</v>
       </c>
       <c r="G194" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>130</v>
       </c>
@@ -10857,10 +9561,10 @@
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>130</v>
       </c>
@@ -10880,10 +9584,10 @@
         <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>130</v>
       </c>
@@ -10903,10 +9607,10 @@
         <v>5</v>
       </c>
       <c r="G197" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>140</v>
       </c>
@@ -10926,10 +9630,10 @@
         <v>5</v>
       </c>
       <c r="G198" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>140</v>
       </c>
@@ -10949,10 +9653,10 @@
         <v>3</v>
       </c>
       <c r="G199" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>140</v>
       </c>
@@ -10972,10 +9676,10 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>140</v>
       </c>
@@ -10995,10 +9699,10 @@
         <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>140</v>
       </c>
@@ -11018,10 +9722,10 @@
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>140</v>
       </c>
@@ -11041,10 +9745,10 @@
         <v>3</v>
       </c>
       <c r="G203" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>140</v>
       </c>
@@ -11064,10 +9768,10 @@
         <v>5</v>
       </c>
       <c r="G204" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>130</v>
       </c>
@@ -11087,10 +9791,10 @@
         <v>5</v>
       </c>
       <c r="G205" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>130</v>
       </c>
@@ -11110,10 +9814,10 @@
         <v>3</v>
       </c>
       <c r="G206" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>130</v>
       </c>
@@ -11133,10 +9837,10 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>130</v>
       </c>
@@ -11156,10 +9860,10 @@
         <v>3</v>
       </c>
       <c r="G208" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>130</v>
       </c>
@@ -11179,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>130</v>
       </c>
@@ -11202,10 +9906,10 @@
         <v>3</v>
       </c>
       <c r="G210" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>130</v>
       </c>
@@ -11225,10 +9929,10 @@
         <v>5</v>
       </c>
       <c r="G211" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>140</v>
       </c>
@@ -11248,10 +9952,10 @@
         <v>5</v>
       </c>
       <c r="G212" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>140</v>
       </c>
@@ -11271,10 +9975,10 @@
         <v>3</v>
       </c>
       <c r="G213" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>140</v>
       </c>
@@ -11294,10 +9998,10 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>140</v>
       </c>
@@ -11317,10 +10021,10 @@
         <v>3</v>
       </c>
       <c r="G215" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>140</v>
       </c>
@@ -11340,10 +10044,10 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>140</v>
       </c>
@@ -11363,10 +10067,10 @@
         <v>3</v>
       </c>
       <c r="G217" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>140</v>
       </c>
@@ -11386,10 +10090,10 @@
         <v>5</v>
       </c>
       <c r="G218" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>130</v>
       </c>
@@ -11409,10 +10113,10 @@
         <v>5</v>
       </c>
       <c r="G219" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>130</v>
       </c>
@@ -11432,10 +10136,10 @@
         <v>3</v>
       </c>
       <c r="G220" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>130</v>
       </c>
@@ -11455,10 +10159,10 @@
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>130</v>
       </c>
@@ -11478,10 +10182,10 @@
         <v>3</v>
       </c>
       <c r="G222" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>130</v>
       </c>
@@ -11501,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>130</v>
       </c>
@@ -11524,10 +10228,10 @@
         <v>3</v>
       </c>
       <c r="G224" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>130</v>
       </c>
@@ -11547,10 +10251,10 @@
         <v>5</v>
       </c>
       <c r="G225" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>131</v>
       </c>
@@ -11570,10 +10274,10 @@
         <v>5</v>
       </c>
       <c r="G226" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>131</v>
       </c>
@@ -11593,10 +10297,10 @@
         <v>3</v>
       </c>
       <c r="G227" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>131</v>
       </c>
@@ -11616,10 +10320,10 @@
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>131</v>
       </c>
@@ -11639,10 +10343,10 @@
         <v>3</v>
       </c>
       <c r="G229" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>131</v>
       </c>
@@ -11662,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="G230" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>131</v>
       </c>
@@ -11685,10 +10389,10 @@
         <v>3</v>
       </c>
       <c r="G231" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>131</v>
       </c>
@@ -11708,10 +10412,10 @@
         <v>5</v>
       </c>
       <c r="G232" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>139</v>
       </c>
@@ -11731,10 +10435,10 @@
         <v>5</v>
       </c>
       <c r="G233" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>139</v>
       </c>
@@ -11754,10 +10458,10 @@
         <v>3</v>
       </c>
       <c r="G234" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>139</v>
       </c>
@@ -11777,10 +10481,10 @@
         <v>0</v>
       </c>
       <c r="G235" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>139</v>
       </c>
@@ -11800,10 +10504,10 @@
         <v>3</v>
       </c>
       <c r="G236" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>139</v>
       </c>
@@ -11823,10 +10527,10 @@
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>139</v>
       </c>
@@ -11846,10 +10550,10 @@
         <v>3</v>
       </c>
       <c r="G238" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>139</v>
       </c>
@@ -11869,10 +10573,10 @@
         <v>5</v>
       </c>
       <c r="G239" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>140</v>
       </c>
@@ -11892,10 +10596,10 @@
         <v>2</v>
       </c>
       <c r="G240" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>140</v>
       </c>
@@ -11915,10 +10619,10 @@
         <v>0</v>
       </c>
       <c r="G241" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>140</v>
       </c>
@@ -11938,10 +10642,10 @@
         <v>3</v>
       </c>
       <c r="G242" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>140</v>
       </c>
@@ -11961,10 +10665,10 @@
         <v>6</v>
       </c>
       <c r="G243" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>140</v>
       </c>
@@ -11984,10 +10688,10 @@
         <v>3</v>
       </c>
       <c r="G244" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>140</v>
       </c>
@@ -12007,10 +10711,10 @@
         <v>0</v>
       </c>
       <c r="G245" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>140</v>
       </c>
@@ -12030,10 +10734,10 @@
         <v>2</v>
       </c>
       <c r="G246" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>150</v>
       </c>
@@ -12053,10 +10757,10 @@
         <v>2</v>
       </c>
       <c r="G247" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>150</v>
       </c>
@@ -12076,10 +10780,10 @@
         <v>0</v>
       </c>
       <c r="G248" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>150</v>
       </c>
@@ -12099,10 +10803,10 @@
         <v>3</v>
       </c>
       <c r="G249" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>150</v>
       </c>
@@ -12122,10 +10826,10 @@
         <v>6</v>
       </c>
       <c r="G250" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>150</v>
       </c>
@@ -12145,10 +10849,10 @@
         <v>3</v>
       </c>
       <c r="G251" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>150</v>
       </c>
@@ -12168,10 +10872,10 @@
         <v>0</v>
       </c>
       <c r="G252" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>150</v>
       </c>
@@ -12191,10 +10895,10 @@
         <v>2</v>
       </c>
       <c r="G253" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>139</v>
       </c>
@@ -12214,10 +10918,10 @@
         <v>2</v>
       </c>
       <c r="G254" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>139</v>
       </c>
@@ -12237,10 +10941,10 @@
         <v>0</v>
       </c>
       <c r="G255" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>139</v>
       </c>
@@ -12260,10 +10964,10 @@
         <v>3</v>
       </c>
       <c r="G256" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>139</v>
       </c>
@@ -12283,10 +10987,10 @@
         <v>6</v>
       </c>
       <c r="G257" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>139</v>
       </c>
@@ -12306,10 +11010,10 @@
         <v>3</v>
       </c>
       <c r="G258" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>139</v>
       </c>
@@ -12329,10 +11033,10 @@
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>139</v>
       </c>
@@ -12352,10 +11056,10 @@
         <v>2</v>
       </c>
       <c r="G260" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>139</v>
       </c>
@@ -12375,10 +11079,10 @@
         <v>2</v>
       </c>
       <c r="G261" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>139</v>
       </c>
@@ -12398,10 +11102,10 @@
         <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>139</v>
       </c>
@@ -12421,10 +11125,10 @@
         <v>3</v>
       </c>
       <c r="G263" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>139</v>
       </c>
@@ -12444,10 +11148,10 @@
         <v>6</v>
       </c>
       <c r="G264" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>139</v>
       </c>
@@ -12467,10 +11171,10 @@
         <v>3</v>
       </c>
       <c r="G265" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>139</v>
       </c>
@@ -12490,10 +11194,10 @@
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>139</v>
       </c>
@@ -12513,2261 +11217,7 @@
         <v>2</v>
       </c>
       <c r="G267" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268">
-        <v>130</v>
-      </c>
-      <c r="B268">
-        <v>90</v>
-      </c>
-      <c r="C268">
-        <v>7</v>
-      </c>
-      <c r="D268" t="s">
-        <v>17</v>
-      </c>
-      <c r="E268">
-        <v>2</v>
-      </c>
-      <c r="F268">
-        <v>5</v>
-      </c>
-      <c r="G268" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269">
-        <v>130</v>
-      </c>
-      <c r="B269">
-        <v>90</v>
-      </c>
-      <c r="C269">
-        <v>7</v>
-      </c>
-      <c r="D269" t="s">
-        <v>22</v>
-      </c>
-      <c r="E269">
-        <v>4</v>
-      </c>
-      <c r="F269">
-        <v>3</v>
-      </c>
-      <c r="G269" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270">
-        <v>130</v>
-      </c>
-      <c r="B270">
-        <v>90</v>
-      </c>
-      <c r="C270">
-        <v>7</v>
-      </c>
-      <c r="D270" t="s">
-        <v>25</v>
-      </c>
-      <c r="E270">
-        <v>7</v>
-      </c>
-      <c r="F270">
-        <v>0</v>
-      </c>
-      <c r="G270" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271">
-        <v>130</v>
-      </c>
-      <c r="B271">
-        <v>90</v>
-      </c>
-      <c r="C271">
-        <v>7</v>
-      </c>
-      <c r="D271" t="s">
-        <v>27</v>
-      </c>
-      <c r="E271">
-        <v>10</v>
-      </c>
-      <c r="F271">
-        <v>3</v>
-      </c>
-      <c r="G271" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272">
-        <v>130</v>
-      </c>
-      <c r="B272">
-        <v>90</v>
-      </c>
-      <c r="C272">
-        <v>7</v>
-      </c>
-      <c r="D272" t="s">
-        <v>30</v>
-      </c>
-      <c r="E272">
-        <v>7</v>
-      </c>
-      <c r="F272">
-        <v>0</v>
-      </c>
-      <c r="G272" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273">
-        <v>130</v>
-      </c>
-      <c r="B273">
-        <v>90</v>
-      </c>
-      <c r="C273">
-        <v>7</v>
-      </c>
-      <c r="D273" t="s">
-        <v>34</v>
-      </c>
-      <c r="E273">
-        <v>4</v>
-      </c>
-      <c r="F273">
-        <v>3</v>
-      </c>
-      <c r="G273" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274">
-        <v>130</v>
-      </c>
-      <c r="B274">
-        <v>90</v>
-      </c>
-      <c r="C274">
-        <v>7</v>
-      </c>
-      <c r="D274" t="s">
-        <v>36</v>
-      </c>
-      <c r="E274">
-        <v>2</v>
-      </c>
-      <c r="F274">
-        <v>5</v>
-      </c>
-      <c r="G274" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275">
-        <v>131</v>
-      </c>
-      <c r="B275">
-        <v>90</v>
-      </c>
-      <c r="C275">
-        <v>7</v>
-      </c>
-      <c r="D275" t="s">
-        <v>17</v>
-      </c>
-      <c r="E275">
-        <v>2</v>
-      </c>
-      <c r="F275">
-        <v>5</v>
-      </c>
-      <c r="G275" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276">
-        <v>131</v>
-      </c>
-      <c r="B276">
-        <v>90</v>
-      </c>
-      <c r="C276">
-        <v>7</v>
-      </c>
-      <c r="D276" t="s">
-        <v>22</v>
-      </c>
-      <c r="E276">
-        <v>4</v>
-      </c>
-      <c r="F276">
-        <v>3</v>
-      </c>
-      <c r="G276" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277">
-        <v>131</v>
-      </c>
-      <c r="B277">
-        <v>90</v>
-      </c>
-      <c r="C277">
-        <v>7</v>
-      </c>
-      <c r="D277" t="s">
-        <v>25</v>
-      </c>
-      <c r="E277">
-        <v>7</v>
-      </c>
-      <c r="F277">
-        <v>0</v>
-      </c>
-      <c r="G277" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278">
-        <v>131</v>
-      </c>
-      <c r="B278">
-        <v>90</v>
-      </c>
-      <c r="C278">
-        <v>7</v>
-      </c>
-      <c r="D278" t="s">
-        <v>27</v>
-      </c>
-      <c r="E278">
-        <v>10</v>
-      </c>
-      <c r="F278">
-        <v>3</v>
-      </c>
-      <c r="G278" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279">
-        <v>131</v>
-      </c>
-      <c r="B279">
-        <v>90</v>
-      </c>
-      <c r="C279">
-        <v>7</v>
-      </c>
-      <c r="D279" t="s">
-        <v>30</v>
-      </c>
-      <c r="E279">
-        <v>7</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280">
-        <v>131</v>
-      </c>
-      <c r="B280">
-        <v>90</v>
-      </c>
-      <c r="C280">
-        <v>7</v>
-      </c>
-      <c r="D280" t="s">
-        <v>34</v>
-      </c>
-      <c r="E280">
-        <v>4</v>
-      </c>
-      <c r="F280">
-        <v>3</v>
-      </c>
-      <c r="G280" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281">
-        <v>131</v>
-      </c>
-      <c r="B281">
-        <v>90</v>
-      </c>
-      <c r="C281">
-        <v>7</v>
-      </c>
-      <c r="D281" t="s">
-        <v>36</v>
-      </c>
-      <c r="E281">
-        <v>2</v>
-      </c>
-      <c r="F281">
-        <v>5</v>
-      </c>
-      <c r="G281" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282">
-        <v>139</v>
-      </c>
-      <c r="B282">
-        <v>90</v>
-      </c>
-      <c r="C282">
-        <v>7</v>
-      </c>
-      <c r="D282" t="s">
-        <v>17</v>
-      </c>
-      <c r="E282">
-        <v>2</v>
-      </c>
-      <c r="F282">
-        <v>5</v>
-      </c>
-      <c r="G282" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283">
-        <v>139</v>
-      </c>
-      <c r="B283">
-        <v>90</v>
-      </c>
-      <c r="C283">
-        <v>7</v>
-      </c>
-      <c r="D283" t="s">
-        <v>22</v>
-      </c>
-      <c r="E283">
-        <v>4</v>
-      </c>
-      <c r="F283">
-        <v>3</v>
-      </c>
-      <c r="G283" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284">
-        <v>139</v>
-      </c>
-      <c r="B284">
-        <v>90</v>
-      </c>
-      <c r="C284">
-        <v>7</v>
-      </c>
-      <c r="D284" t="s">
-        <v>25</v>
-      </c>
-      <c r="E284">
-        <v>7</v>
-      </c>
-      <c r="F284">
-        <v>0</v>
-      </c>
-      <c r="G284" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285">
-        <v>139</v>
-      </c>
-      <c r="B285">
-        <v>90</v>
-      </c>
-      <c r="C285">
-        <v>7</v>
-      </c>
-      <c r="D285" t="s">
-        <v>27</v>
-      </c>
-      <c r="E285">
-        <v>10</v>
-      </c>
-      <c r="F285">
-        <v>3</v>
-      </c>
-      <c r="G285" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286">
-        <v>139</v>
-      </c>
-      <c r="B286">
-        <v>90</v>
-      </c>
-      <c r="C286">
-        <v>7</v>
-      </c>
-      <c r="D286" t="s">
-        <v>30</v>
-      </c>
-      <c r="E286">
-        <v>7</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287">
-        <v>139</v>
-      </c>
-      <c r="B287">
-        <v>90</v>
-      </c>
-      <c r="C287">
-        <v>7</v>
-      </c>
-      <c r="D287" t="s">
-        <v>34</v>
-      </c>
-      <c r="E287">
-        <v>4</v>
-      </c>
-      <c r="F287">
-        <v>3</v>
-      </c>
-      <c r="G287" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288">
-        <v>139</v>
-      </c>
-      <c r="B288">
-        <v>90</v>
-      </c>
-      <c r="C288">
-        <v>7</v>
-      </c>
-      <c r="D288" t="s">
-        <v>36</v>
-      </c>
-      <c r="E288">
-        <v>2</v>
-      </c>
-      <c r="F288">
-        <v>5</v>
-      </c>
-      <c r="G288" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289">
-        <v>140</v>
-      </c>
-      <c r="B289">
-        <v>89</v>
-      </c>
-      <c r="C289">
-        <v>4</v>
-      </c>
-      <c r="D289" t="s">
-        <v>17</v>
-      </c>
-      <c r="E289">
-        <v>2</v>
-      </c>
-      <c r="F289">
-        <v>2</v>
-      </c>
-      <c r="G289" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290">
-        <v>140</v>
-      </c>
-      <c r="B290">
-        <v>89</v>
-      </c>
-      <c r="C290">
-        <v>4</v>
-      </c>
-      <c r="D290" t="s">
-        <v>22</v>
-      </c>
-      <c r="E290">
-        <v>4</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291">
-        <v>140</v>
-      </c>
-      <c r="B291">
-        <v>89</v>
-      </c>
-      <c r="C291">
-        <v>4</v>
-      </c>
-      <c r="D291" t="s">
-        <v>25</v>
-      </c>
-      <c r="E291">
-        <v>7</v>
-      </c>
-      <c r="F291">
-        <v>3</v>
-      </c>
-      <c r="G291" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292">
-        <v>140</v>
-      </c>
-      <c r="B292">
-        <v>89</v>
-      </c>
-      <c r="C292">
-        <v>4</v>
-      </c>
-      <c r="D292" t="s">
-        <v>27</v>
-      </c>
-      <c r="E292">
-        <v>10</v>
-      </c>
-      <c r="F292">
-        <v>6</v>
-      </c>
-      <c r="G292" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293">
-        <v>140</v>
-      </c>
-      <c r="B293">
-        <v>89</v>
-      </c>
-      <c r="C293">
-        <v>4</v>
-      </c>
-      <c r="D293" t="s">
-        <v>30</v>
-      </c>
-      <c r="E293">
-        <v>7</v>
-      </c>
-      <c r="F293">
-        <v>3</v>
-      </c>
-      <c r="G293" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294">
-        <v>140</v>
-      </c>
-      <c r="B294">
-        <v>89</v>
-      </c>
-      <c r="C294">
-        <v>4</v>
-      </c>
-      <c r="D294" t="s">
-        <v>34</v>
-      </c>
-      <c r="E294">
-        <v>4</v>
-      </c>
-      <c r="F294">
-        <v>0</v>
-      </c>
-      <c r="G294" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295">
-        <v>140</v>
-      </c>
-      <c r="B295">
-        <v>89</v>
-      </c>
-      <c r="C295">
-        <v>4</v>
-      </c>
-      <c r="D295" t="s">
-        <v>36</v>
-      </c>
-      <c r="E295">
-        <v>2</v>
-      </c>
-      <c r="F295">
-        <v>2</v>
-      </c>
-      <c r="G295" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296">
-        <v>150</v>
-      </c>
-      <c r="B296">
-        <v>89</v>
-      </c>
-      <c r="C296">
-        <v>4</v>
-      </c>
-      <c r="D296" t="s">
-        <v>17</v>
-      </c>
-      <c r="E296">
-        <v>2</v>
-      </c>
-      <c r="F296">
-        <v>2</v>
-      </c>
-      <c r="G296" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297">
-        <v>150</v>
-      </c>
-      <c r="B297">
-        <v>89</v>
-      </c>
-      <c r="C297">
-        <v>4</v>
-      </c>
-      <c r="D297" t="s">
-        <v>22</v>
-      </c>
-      <c r="E297">
-        <v>4</v>
-      </c>
-      <c r="F297">
-        <v>0</v>
-      </c>
-      <c r="G297" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298">
-        <v>150</v>
-      </c>
-      <c r="B298">
-        <v>89</v>
-      </c>
-      <c r="C298">
-        <v>4</v>
-      </c>
-      <c r="D298" t="s">
-        <v>25</v>
-      </c>
-      <c r="E298">
-        <v>7</v>
-      </c>
-      <c r="F298">
-        <v>3</v>
-      </c>
-      <c r="G298" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299">
-        <v>150</v>
-      </c>
-      <c r="B299">
-        <v>89</v>
-      </c>
-      <c r="C299">
-        <v>4</v>
-      </c>
-      <c r="D299" t="s">
-        <v>27</v>
-      </c>
-      <c r="E299">
-        <v>10</v>
-      </c>
-      <c r="F299">
-        <v>6</v>
-      </c>
-      <c r="G299" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300">
-        <v>150</v>
-      </c>
-      <c r="B300">
-        <v>89</v>
-      </c>
-      <c r="C300">
-        <v>4</v>
-      </c>
-      <c r="D300" t="s">
-        <v>30</v>
-      </c>
-      <c r="E300">
-        <v>7</v>
-      </c>
-      <c r="F300">
-        <v>3</v>
-      </c>
-      <c r="G300" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
-      <c r="A301">
-        <v>150</v>
-      </c>
-      <c r="B301">
-        <v>89</v>
-      </c>
-      <c r="C301">
-        <v>4</v>
-      </c>
-      <c r="D301" t="s">
-        <v>34</v>
-      </c>
-      <c r="E301">
-        <v>4</v>
-      </c>
-      <c r="F301">
-        <v>0</v>
-      </c>
-      <c r="G301" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
-      <c r="A302">
-        <v>150</v>
-      </c>
-      <c r="B302">
-        <v>89</v>
-      </c>
-      <c r="C302">
-        <v>4</v>
-      </c>
-      <c r="D302" t="s">
-        <v>36</v>
-      </c>
-      <c r="E302">
-        <v>2</v>
-      </c>
-      <c r="F302">
-        <v>2</v>
-      </c>
-      <c r="G302" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303">
-        <v>151</v>
-      </c>
-      <c r="B303">
-        <v>89</v>
-      </c>
-      <c r="C303">
-        <v>4</v>
-      </c>
-      <c r="D303" t="s">
-        <v>17</v>
-      </c>
-      <c r="E303">
-        <v>2</v>
-      </c>
-      <c r="F303">
-        <v>2</v>
-      </c>
-      <c r="G303" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304">
-        <v>151</v>
-      </c>
-      <c r="B304">
-        <v>89</v>
-      </c>
-      <c r="C304">
-        <v>4</v>
-      </c>
-      <c r="D304" t="s">
-        <v>22</v>
-      </c>
-      <c r="E304">
-        <v>4</v>
-      </c>
-      <c r="F304">
-        <v>0</v>
-      </c>
-      <c r="G304" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305">
-        <v>151</v>
-      </c>
-      <c r="B305">
-        <v>89</v>
-      </c>
-      <c r="C305">
-        <v>4</v>
-      </c>
-      <c r="D305" t="s">
-        <v>25</v>
-      </c>
-      <c r="E305">
-        <v>7</v>
-      </c>
-      <c r="F305">
-        <v>3</v>
-      </c>
-      <c r="G305" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306">
-        <v>151</v>
-      </c>
-      <c r="B306">
-        <v>89</v>
-      </c>
-      <c r="C306">
-        <v>4</v>
-      </c>
-      <c r="D306" t="s">
-        <v>27</v>
-      </c>
-      <c r="E306">
-        <v>10</v>
-      </c>
-      <c r="F306">
-        <v>6</v>
-      </c>
-      <c r="G306" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307">
-        <v>151</v>
-      </c>
-      <c r="B307">
-        <v>89</v>
-      </c>
-      <c r="C307">
-        <v>4</v>
-      </c>
-      <c r="D307" t="s">
-        <v>30</v>
-      </c>
-      <c r="E307">
-        <v>7</v>
-      </c>
-      <c r="F307">
-        <v>3</v>
-      </c>
-      <c r="G307" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
-      <c r="A308">
-        <v>151</v>
-      </c>
-      <c r="B308">
-        <v>89</v>
-      </c>
-      <c r="C308">
-        <v>4</v>
-      </c>
-      <c r="D308" t="s">
-        <v>34</v>
-      </c>
-      <c r="E308">
-        <v>4</v>
-      </c>
-      <c r="F308">
-        <v>0</v>
-      </c>
-      <c r="G308" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
-      <c r="A309">
-        <v>151</v>
-      </c>
-      <c r="B309">
-        <v>89</v>
-      </c>
-      <c r="C309">
-        <v>4</v>
-      </c>
-      <c r="D309" t="s">
-        <v>36</v>
-      </c>
-      <c r="E309">
-        <v>2</v>
-      </c>
-      <c r="F309">
-        <v>2</v>
-      </c>
-      <c r="G309" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
-      <c r="A310">
-        <v>139</v>
-      </c>
-      <c r="B310">
-        <v>90</v>
-      </c>
-      <c r="C310">
-        <v>4</v>
-      </c>
-      <c r="D310" t="s">
-        <v>17</v>
-      </c>
-      <c r="E310">
-        <v>2</v>
-      </c>
-      <c r="F310">
-        <v>2</v>
-      </c>
-      <c r="G310" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
-      <c r="A311">
-        <v>139</v>
-      </c>
-      <c r="B311">
-        <v>90</v>
-      </c>
-      <c r="C311">
-        <v>4</v>
-      </c>
-      <c r="D311" t="s">
-        <v>22</v>
-      </c>
-      <c r="E311">
-        <v>4</v>
-      </c>
-      <c r="F311">
-        <v>0</v>
-      </c>
-      <c r="G311" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
-      <c r="A312">
-        <v>139</v>
-      </c>
-      <c r="B312">
-        <v>90</v>
-      </c>
-      <c r="C312">
-        <v>4</v>
-      </c>
-      <c r="D312" t="s">
-        <v>25</v>
-      </c>
-      <c r="E312">
-        <v>7</v>
-      </c>
-      <c r="F312">
-        <v>3</v>
-      </c>
-      <c r="G312" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
-      <c r="A313">
-        <v>139</v>
-      </c>
-      <c r="B313">
-        <v>90</v>
-      </c>
-      <c r="C313">
-        <v>4</v>
-      </c>
-      <c r="D313" t="s">
-        <v>27</v>
-      </c>
-      <c r="E313">
-        <v>10</v>
-      </c>
-      <c r="F313">
-        <v>6</v>
-      </c>
-      <c r="G313" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
-      <c r="A314">
-        <v>139</v>
-      </c>
-      <c r="B314">
-        <v>90</v>
-      </c>
-      <c r="C314">
-        <v>4</v>
-      </c>
-      <c r="D314" t="s">
-        <v>30</v>
-      </c>
-      <c r="E314">
-        <v>7</v>
-      </c>
-      <c r="F314">
-        <v>3</v>
-      </c>
-      <c r="G314" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
-      <c r="A315">
-        <v>139</v>
-      </c>
-      <c r="B315">
-        <v>90</v>
-      </c>
-      <c r="C315">
-        <v>4</v>
-      </c>
-      <c r="D315" t="s">
-        <v>34</v>
-      </c>
-      <c r="E315">
-        <v>4</v>
-      </c>
-      <c r="F315">
-        <v>0</v>
-      </c>
-      <c r="G315" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
-      <c r="A316">
-        <v>139</v>
-      </c>
-      <c r="B316">
-        <v>90</v>
-      </c>
-      <c r="C316">
-        <v>4</v>
-      </c>
-      <c r="D316" t="s">
-        <v>36</v>
-      </c>
-      <c r="E316">
-        <v>2</v>
-      </c>
-      <c r="F316">
-        <v>2</v>
-      </c>
-      <c r="G316" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
-      <c r="A317">
-        <v>151</v>
-      </c>
-      <c r="B317">
-        <v>90</v>
-      </c>
-      <c r="C317">
-        <v>4</v>
-      </c>
-      <c r="D317" t="s">
-        <v>17</v>
-      </c>
-      <c r="E317">
-        <v>2</v>
-      </c>
-      <c r="F317">
-        <v>2</v>
-      </c>
-      <c r="G317" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
-      <c r="A318">
-        <v>151</v>
-      </c>
-      <c r="B318">
-        <v>90</v>
-      </c>
-      <c r="C318">
-        <v>4</v>
-      </c>
-      <c r="D318" t="s">
-        <v>22</v>
-      </c>
-      <c r="E318">
-        <v>4</v>
-      </c>
-      <c r="F318">
-        <v>0</v>
-      </c>
-      <c r="G318" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
-      <c r="A319">
-        <v>151</v>
-      </c>
-      <c r="B319">
-        <v>90</v>
-      </c>
-      <c r="C319">
-        <v>4</v>
-      </c>
-      <c r="D319" t="s">
-        <v>25</v>
-      </c>
-      <c r="E319">
-        <v>7</v>
-      </c>
-      <c r="F319">
-        <v>3</v>
-      </c>
-      <c r="G319" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7">
-      <c r="A320">
-        <v>151</v>
-      </c>
-      <c r="B320">
-        <v>90</v>
-      </c>
-      <c r="C320">
-        <v>4</v>
-      </c>
-      <c r="D320" t="s">
-        <v>27</v>
-      </c>
-      <c r="E320">
-        <v>10</v>
-      </c>
-      <c r="F320">
-        <v>6</v>
-      </c>
-      <c r="G320" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
-      <c r="A321">
-        <v>151</v>
-      </c>
-      <c r="B321">
-        <v>90</v>
-      </c>
-      <c r="C321">
-        <v>4</v>
-      </c>
-      <c r="D321" t="s">
-        <v>30</v>
-      </c>
-      <c r="E321">
-        <v>7</v>
-      </c>
-      <c r="F321">
-        <v>3</v>
-      </c>
-      <c r="G321" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
-      <c r="A322">
-        <v>151</v>
-      </c>
-      <c r="B322">
-        <v>90</v>
-      </c>
-      <c r="C322">
-        <v>4</v>
-      </c>
-      <c r="D322" t="s">
-        <v>34</v>
-      </c>
-      <c r="E322">
-        <v>4</v>
-      </c>
-      <c r="F322">
-        <v>0</v>
-      </c>
-      <c r="G322" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
-      <c r="A323">
-        <v>151</v>
-      </c>
-      <c r="B323">
-        <v>90</v>
-      </c>
-      <c r="C323">
-        <v>4</v>
-      </c>
-      <c r="D323" t="s">
-        <v>36</v>
-      </c>
-      <c r="E323">
-        <v>2</v>
-      </c>
-      <c r="F323">
-        <v>2</v>
-      </c>
-      <c r="G323" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
-      <c r="A324">
-        <v>139</v>
-      </c>
-      <c r="B324">
-        <v>99</v>
-      </c>
-      <c r="C324">
-        <v>4</v>
-      </c>
-      <c r="D324" t="s">
-        <v>17</v>
-      </c>
-      <c r="E324">
-        <v>2</v>
-      </c>
-      <c r="F324">
-        <v>2</v>
-      </c>
-      <c r="G324" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
-      <c r="A325">
-        <v>139</v>
-      </c>
-      <c r="B325">
-        <v>99</v>
-      </c>
-      <c r="C325">
-        <v>4</v>
-      </c>
-      <c r="D325" t="s">
-        <v>22</v>
-      </c>
-      <c r="E325">
-        <v>4</v>
-      </c>
-      <c r="F325">
-        <v>0</v>
-      </c>
-      <c r="G325" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
-      <c r="A326">
-        <v>139</v>
-      </c>
-      <c r="B326">
-        <v>99</v>
-      </c>
-      <c r="C326">
-        <v>4</v>
-      </c>
-      <c r="D326" t="s">
-        <v>25</v>
-      </c>
-      <c r="E326">
-        <v>7</v>
-      </c>
-      <c r="F326">
-        <v>3</v>
-      </c>
-      <c r="G326" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7">
-      <c r="A327">
-        <v>139</v>
-      </c>
-      <c r="B327">
-        <v>99</v>
-      </c>
-      <c r="C327">
-        <v>4</v>
-      </c>
-      <c r="D327" t="s">
-        <v>27</v>
-      </c>
-      <c r="E327">
-        <v>10</v>
-      </c>
-      <c r="F327">
-        <v>6</v>
-      </c>
-      <c r="G327" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
-      <c r="A328">
-        <v>139</v>
-      </c>
-      <c r="B328">
-        <v>99</v>
-      </c>
-      <c r="C328">
-        <v>4</v>
-      </c>
-      <c r="D328" t="s">
-        <v>30</v>
-      </c>
-      <c r="E328">
-        <v>7</v>
-      </c>
-      <c r="F328">
-        <v>3</v>
-      </c>
-      <c r="G328" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
-      <c r="A329">
-        <v>139</v>
-      </c>
-      <c r="B329">
-        <v>99</v>
-      </c>
-      <c r="C329">
-        <v>4</v>
-      </c>
-      <c r="D329" t="s">
-        <v>34</v>
-      </c>
-      <c r="E329">
-        <v>4</v>
-      </c>
-      <c r="F329">
-        <v>0</v>
-      </c>
-      <c r="G329" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7">
-      <c r="A330">
-        <v>139</v>
-      </c>
-      <c r="B330">
-        <v>99</v>
-      </c>
-      <c r="C330">
-        <v>4</v>
-      </c>
-      <c r="D330" t="s">
-        <v>36</v>
-      </c>
-      <c r="E330">
-        <v>2</v>
-      </c>
-      <c r="F330">
-        <v>2</v>
-      </c>
-      <c r="G330" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
-      <c r="A331">
-        <v>151</v>
-      </c>
-      <c r="B331">
-        <v>99</v>
-      </c>
-      <c r="C331">
-        <v>4</v>
-      </c>
-      <c r="D331" t="s">
-        <v>17</v>
-      </c>
-      <c r="E331">
-        <v>2</v>
-      </c>
-      <c r="F331">
-        <v>2</v>
-      </c>
-      <c r="G331" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7">
-      <c r="A332">
-        <v>151</v>
-      </c>
-      <c r="B332">
-        <v>99</v>
-      </c>
-      <c r="C332">
-        <v>4</v>
-      </c>
-      <c r="D332" t="s">
-        <v>22</v>
-      </c>
-      <c r="E332">
-        <v>4</v>
-      </c>
-      <c r="F332">
-        <v>0</v>
-      </c>
-      <c r="G332" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7">
-      <c r="A333">
-        <v>151</v>
-      </c>
-      <c r="B333">
-        <v>99</v>
-      </c>
-      <c r="C333">
-        <v>4</v>
-      </c>
-      <c r="D333" t="s">
-        <v>25</v>
-      </c>
-      <c r="E333">
-        <v>7</v>
-      </c>
-      <c r="F333">
-        <v>3</v>
-      </c>
-      <c r="G333" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7">
-      <c r="A334">
-        <v>151</v>
-      </c>
-      <c r="B334">
-        <v>99</v>
-      </c>
-      <c r="C334">
-        <v>4</v>
-      </c>
-      <c r="D334" t="s">
-        <v>27</v>
-      </c>
-      <c r="E334">
-        <v>10</v>
-      </c>
-      <c r="F334">
-        <v>6</v>
-      </c>
-      <c r="G334" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
-      <c r="A335">
-        <v>151</v>
-      </c>
-      <c r="B335">
-        <v>99</v>
-      </c>
-      <c r="C335">
-        <v>4</v>
-      </c>
-      <c r="D335" t="s">
-        <v>30</v>
-      </c>
-      <c r="E335">
-        <v>7</v>
-      </c>
-      <c r="F335">
-        <v>3</v>
-      </c>
-      <c r="G335" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7">
-      <c r="A336">
-        <v>151</v>
-      </c>
-      <c r="B336">
-        <v>99</v>
-      </c>
-      <c r="C336">
-        <v>4</v>
-      </c>
-      <c r="D336" t="s">
-        <v>34</v>
-      </c>
-      <c r="E336">
-        <v>4</v>
-      </c>
-      <c r="F336">
-        <v>0</v>
-      </c>
-      <c r="G336" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7">
-      <c r="A337">
-        <v>151</v>
-      </c>
-      <c r="B337">
-        <v>99</v>
-      </c>
-      <c r="C337">
-        <v>4</v>
-      </c>
-      <c r="D337" t="s">
-        <v>36</v>
-      </c>
-      <c r="E337">
-        <v>2</v>
-      </c>
-      <c r="F337">
-        <v>2</v>
-      </c>
-      <c r="G337" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
-      <c r="A338">
-        <v>139</v>
-      </c>
-      <c r="B338">
-        <v>100</v>
-      </c>
-      <c r="C338">
-        <v>4</v>
-      </c>
-      <c r="D338" t="s">
-        <v>17</v>
-      </c>
-      <c r="E338">
-        <v>2</v>
-      </c>
-      <c r="F338">
-        <v>2</v>
-      </c>
-      <c r="G338" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
-      <c r="A339">
-        <v>139</v>
-      </c>
-      <c r="B339">
-        <v>100</v>
-      </c>
-      <c r="C339">
-        <v>4</v>
-      </c>
-      <c r="D339" t="s">
-        <v>22</v>
-      </c>
-      <c r="E339">
-        <v>4</v>
-      </c>
-      <c r="F339">
-        <v>0</v>
-      </c>
-      <c r="G339" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
-      <c r="A340">
-        <v>139</v>
-      </c>
-      <c r="B340">
-        <v>100</v>
-      </c>
-      <c r="C340">
-        <v>4</v>
-      </c>
-      <c r="D340" t="s">
-        <v>25</v>
-      </c>
-      <c r="E340">
-        <v>7</v>
-      </c>
-      <c r="F340">
-        <v>3</v>
-      </c>
-      <c r="G340" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
-      <c r="A341">
-        <v>139</v>
-      </c>
-      <c r="B341">
-        <v>100</v>
-      </c>
-      <c r="C341">
-        <v>4</v>
-      </c>
-      <c r="D341" t="s">
-        <v>27</v>
-      </c>
-      <c r="E341">
-        <v>10</v>
-      </c>
-      <c r="F341">
-        <v>6</v>
-      </c>
-      <c r="G341" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
-      <c r="A342">
-        <v>139</v>
-      </c>
-      <c r="B342">
-        <v>100</v>
-      </c>
-      <c r="C342">
-        <v>4</v>
-      </c>
-      <c r="D342" t="s">
-        <v>30</v>
-      </c>
-      <c r="E342">
-        <v>7</v>
-      </c>
-      <c r="F342">
-        <v>3</v>
-      </c>
-      <c r="G342" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
-      <c r="A343">
-        <v>139</v>
-      </c>
-      <c r="B343">
-        <v>100</v>
-      </c>
-      <c r="C343">
-        <v>4</v>
-      </c>
-      <c r="D343" t="s">
-        <v>34</v>
-      </c>
-      <c r="E343">
-        <v>4</v>
-      </c>
-      <c r="F343">
-        <v>0</v>
-      </c>
-      <c r="G343" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
-      <c r="A344">
-        <v>139</v>
-      </c>
-      <c r="B344">
-        <v>100</v>
-      </c>
-      <c r="C344">
-        <v>4</v>
-      </c>
-      <c r="D344" t="s">
-        <v>36</v>
-      </c>
-      <c r="E344">
-        <v>2</v>
-      </c>
-      <c r="F344">
-        <v>2</v>
-      </c>
-      <c r="G344" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
-      <c r="A345">
-        <v>140</v>
-      </c>
-      <c r="B345">
-        <v>100</v>
-      </c>
-      <c r="C345">
-        <v>4</v>
-      </c>
-      <c r="D345" t="s">
-        <v>17</v>
-      </c>
-      <c r="E345">
-        <v>2</v>
-      </c>
-      <c r="F345">
-        <v>2</v>
-      </c>
-      <c r="G345" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
-      <c r="A346">
-        <v>140</v>
-      </c>
-      <c r="B346">
-        <v>100</v>
-      </c>
-      <c r="C346">
-        <v>4</v>
-      </c>
-      <c r="D346" t="s">
-        <v>22</v>
-      </c>
-      <c r="E346">
-        <v>4</v>
-      </c>
-      <c r="F346">
-        <v>0</v>
-      </c>
-      <c r="G346" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
-      <c r="A347">
-        <v>140</v>
-      </c>
-      <c r="B347">
-        <v>100</v>
-      </c>
-      <c r="C347">
-        <v>4</v>
-      </c>
-      <c r="D347" t="s">
-        <v>25</v>
-      </c>
-      <c r="E347">
-        <v>7</v>
-      </c>
-      <c r="F347">
-        <v>3</v>
-      </c>
-      <c r="G347" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
-      <c r="A348">
-        <v>140</v>
-      </c>
-      <c r="B348">
-        <v>100</v>
-      </c>
-      <c r="C348">
-        <v>4</v>
-      </c>
-      <c r="D348" t="s">
-        <v>27</v>
-      </c>
-      <c r="E348">
-        <v>10</v>
-      </c>
-      <c r="F348">
-        <v>6</v>
-      </c>
-      <c r="G348" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7">
-      <c r="A349">
-        <v>140</v>
-      </c>
-      <c r="B349">
-        <v>100</v>
-      </c>
-      <c r="C349">
-        <v>4</v>
-      </c>
-      <c r="D349" t="s">
-        <v>30</v>
-      </c>
-      <c r="E349">
-        <v>7</v>
-      </c>
-      <c r="F349">
-        <v>3</v>
-      </c>
-      <c r="G349" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
-      <c r="A350">
-        <v>140</v>
-      </c>
-      <c r="B350">
-        <v>100</v>
-      </c>
-      <c r="C350">
-        <v>4</v>
-      </c>
-      <c r="D350" t="s">
-        <v>34</v>
-      </c>
-      <c r="E350">
-        <v>4</v>
-      </c>
-      <c r="F350">
-        <v>0</v>
-      </c>
-      <c r="G350" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
-      <c r="A351">
-        <v>140</v>
-      </c>
-      <c r="B351">
-        <v>100</v>
-      </c>
-      <c r="C351">
-        <v>4</v>
-      </c>
-      <c r="D351" t="s">
-        <v>36</v>
-      </c>
-      <c r="E351">
-        <v>2</v>
-      </c>
-      <c r="F351">
-        <v>2</v>
-      </c>
-      <c r="G351" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
-      <c r="A352">
-        <v>150</v>
-      </c>
-      <c r="B352">
-        <v>100</v>
-      </c>
-      <c r="C352">
-        <v>4</v>
-      </c>
-      <c r="D352" t="s">
-        <v>17</v>
-      </c>
-      <c r="E352">
-        <v>2</v>
-      </c>
-      <c r="F352">
-        <v>2</v>
-      </c>
-      <c r="G352" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
-      <c r="A353">
-        <v>150</v>
-      </c>
-      <c r="B353">
-        <v>100</v>
-      </c>
-      <c r="C353">
-        <v>4</v>
-      </c>
-      <c r="D353" t="s">
-        <v>22</v>
-      </c>
-      <c r="E353">
-        <v>4</v>
-      </c>
-      <c r="F353">
-        <v>0</v>
-      </c>
-      <c r="G353" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
-      <c r="A354">
-        <v>150</v>
-      </c>
-      <c r="B354">
-        <v>100</v>
-      </c>
-      <c r="C354">
-        <v>4</v>
-      </c>
-      <c r="D354" t="s">
-        <v>25</v>
-      </c>
-      <c r="E354">
-        <v>7</v>
-      </c>
-      <c r="F354">
-        <v>3</v>
-      </c>
-      <c r="G354" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7">
-      <c r="A355">
-        <v>150</v>
-      </c>
-      <c r="B355">
-        <v>100</v>
-      </c>
-      <c r="C355">
-        <v>4</v>
-      </c>
-      <c r="D355" t="s">
-        <v>27</v>
-      </c>
-      <c r="E355">
-        <v>10</v>
-      </c>
-      <c r="F355">
-        <v>6</v>
-      </c>
-      <c r="G355" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
-      <c r="A356">
-        <v>150</v>
-      </c>
-      <c r="B356">
-        <v>100</v>
-      </c>
-      <c r="C356">
-        <v>4</v>
-      </c>
-      <c r="D356" t="s">
-        <v>30</v>
-      </c>
-      <c r="E356">
-        <v>7</v>
-      </c>
-      <c r="F356">
-        <v>3</v>
-      </c>
-      <c r="G356" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
-      <c r="A357">
-        <v>150</v>
-      </c>
-      <c r="B357">
-        <v>100</v>
-      </c>
-      <c r="C357">
-        <v>4</v>
-      </c>
-      <c r="D357" t="s">
-        <v>34</v>
-      </c>
-      <c r="E357">
-        <v>4</v>
-      </c>
-      <c r="F357">
-        <v>0</v>
-      </c>
-      <c r="G357" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
-      <c r="A358">
-        <v>150</v>
-      </c>
-      <c r="B358">
-        <v>100</v>
-      </c>
-      <c r="C358">
-        <v>4</v>
-      </c>
-      <c r="D358" t="s">
-        <v>36</v>
-      </c>
-      <c r="E358">
-        <v>2</v>
-      </c>
-      <c r="F358">
-        <v>2</v>
-      </c>
-      <c r="G358" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
-      <c r="A359">
-        <v>151</v>
-      </c>
-      <c r="B359">
-        <v>100</v>
-      </c>
-      <c r="C359">
-        <v>4</v>
-      </c>
-      <c r="D359" t="s">
-        <v>17</v>
-      </c>
-      <c r="E359">
-        <v>2</v>
-      </c>
-      <c r="F359">
-        <v>2</v>
-      </c>
-      <c r="G359" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
-      <c r="A360">
-        <v>151</v>
-      </c>
-      <c r="B360">
-        <v>100</v>
-      </c>
-      <c r="C360">
-        <v>4</v>
-      </c>
-      <c r="D360" t="s">
-        <v>22</v>
-      </c>
-      <c r="E360">
-        <v>4</v>
-      </c>
-      <c r="F360">
-        <v>0</v>
-      </c>
-      <c r="G360" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
-      <c r="A361">
-        <v>151</v>
-      </c>
-      <c r="B361">
-        <v>100</v>
-      </c>
-      <c r="C361">
-        <v>4</v>
-      </c>
-      <c r="D361" t="s">
-        <v>25</v>
-      </c>
-      <c r="E361">
-        <v>7</v>
-      </c>
-      <c r="F361">
-        <v>3</v>
-      </c>
-      <c r="G361" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7">
-      <c r="A362">
-        <v>151</v>
-      </c>
-      <c r="B362">
-        <v>100</v>
-      </c>
-      <c r="C362">
-        <v>4</v>
-      </c>
-      <c r="D362" t="s">
-        <v>27</v>
-      </c>
-      <c r="E362">
-        <v>10</v>
-      </c>
-      <c r="F362">
-        <v>6</v>
-      </c>
-      <c r="G362" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
-      <c r="A363">
-        <v>151</v>
-      </c>
-      <c r="B363">
-        <v>100</v>
-      </c>
-      <c r="C363">
-        <v>4</v>
-      </c>
-      <c r="D363" t="s">
-        <v>30</v>
-      </c>
-      <c r="E363">
-        <v>7</v>
-      </c>
-      <c r="F363">
-        <v>3</v>
-      </c>
-      <c r="G363" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
-      <c r="A364">
-        <v>151</v>
-      </c>
-      <c r="B364">
-        <v>100</v>
-      </c>
-      <c r="C364">
-        <v>4</v>
-      </c>
-      <c r="D364" t="s">
-        <v>34</v>
-      </c>
-      <c r="E364">
-        <v>4</v>
-      </c>
-      <c r="F364">
-        <v>0</v>
-      </c>
-      <c r="G364" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
-      <c r="A365">
-        <v>151</v>
-      </c>
-      <c r="B365">
-        <v>100</v>
-      </c>
-      <c r="C365">
-        <v>4</v>
-      </c>
-      <c r="D365" t="s">
-        <v>36</v>
-      </c>
-      <c r="E365">
-        <v>2</v>
-      </c>
-      <c r="F365">
-        <v>2</v>
-      </c>
-      <c r="G365" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/HealthScore/src/Resources/Updated_Final_Tests 2 (3).xlsx
+++ b/HealthScore/src/Resources/Updated_Final_Tests 2 (3).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2401014_cognizant_com/Documents/Desktop/NoSuchTeam/HealthScore/src/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{F0762B1D-69D4-4202-BA18-311F8ED8DA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8E5428B-C870-49E0-B346-13117BC2BAD4}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{F0762B1D-69D4-4202-BA18-311F8ED8DA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425CA1D7-A2A0-4148-AD99-D41078B26E8A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0A9B2E77-138E-46BB-9833-BEAF9C09F7DC}"/>
+    <workbookView xWindow="4800" yWindow="840" windowWidth="14400" windowHeight="7270" xr2:uid="{0A9B2E77-138E-46BB-9833-BEAF9C09F7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>18.1</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -697,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B41499-4559-4753-A4A5-05164B6D95D0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -900,8 +903,8 @@
       <c r="C5" s="5">
         <v>35</v>
       </c>
-      <c r="D5" s="16">
-        <v>15</v>
+      <c r="D5" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>25</v>
